--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3226.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3226.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.382526020608554</v>
+        <v>1.354337453842163</v>
       </c>
       <c r="B1">
-        <v>3.035628698812382</v>
+        <v>1.552693247795105</v>
       </c>
       <c r="C1">
-        <v>4.437351345079536</v>
+        <v>1.948180913925171</v>
       </c>
       <c r="D1">
-        <v>3.028642279785224</v>
+        <v>1.994009613990784</v>
       </c>
       <c r="E1">
-        <v>1.236706709904031</v>
+        <v>1.642878651618958</v>
       </c>
     </row>
   </sheetData>
